--- a/brawl.xlsx
+++ b/brawl.xlsx
@@ -12,7 +12,7 @@
     <sheet name="sigs" sheetId="21" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AD$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AC$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sigs!$A$1:$C$101</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="111">
   <si>
     <t>Ada</t>
   </si>
@@ -335,150 +335,6 @@
   </si>
   <si>
     <t>SCY|KAT</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Lore</t>
-  </si>
-  <si>
-    <t>04. Asgard</t>
-  </si>
-  <si>
-    <t>03. Asgard</t>
-  </si>
-  <si>
-    <t>02. Asgard</t>
-  </si>
-  <si>
-    <t>01. Asgard</t>
-  </si>
-  <si>
-    <t>12. Fangwild</t>
-  </si>
-  <si>
-    <t>13. Fangwild</t>
-  </si>
-  <si>
-    <t>14. Fangwild</t>
-  </si>
-  <si>
-    <t>15. Fangwild</t>
-  </si>
-  <si>
-    <t>16. Fangwild</t>
-  </si>
-  <si>
-    <t>20. Batavia</t>
-  </si>
-  <si>
-    <t>21. Batavia</t>
-  </si>
-  <si>
-    <t>22. Batavia</t>
-  </si>
-  <si>
-    <t>23. Batavia</t>
-  </si>
-  <si>
-    <t>05. Wormhole</t>
-  </si>
-  <si>
-    <t>06. Elysium</t>
-  </si>
-  <si>
-    <t>07. Elyria</t>
-  </si>
-  <si>
-    <t>08. Underworld</t>
-  </si>
-  <si>
-    <t>09. Terminus</t>
-  </si>
-  <si>
-    <t>10. Glade of Dreams</t>
-  </si>
-  <si>
-    <t>46. Modern USA</t>
-  </si>
-  <si>
-    <t>48. Post-Apocalyptic Miami</t>
-  </si>
-  <si>
-    <t>11. Roldakk-9</t>
-  </si>
-  <si>
-    <t>17. Fangwild</t>
-  </si>
-  <si>
-    <t>18. Ikrusk</t>
-  </si>
-  <si>
-    <t>19. Edasich</t>
-  </si>
-  <si>
-    <t>24. Batavia</t>
-  </si>
-  <si>
-    <t>25. Prehistoric Earth</t>
-  </si>
-  <si>
-    <t>26. Egypt (time travel)</t>
-  </si>
-  <si>
-    <t>27. Viking Norway</t>
-  </si>
-  <si>
-    <t>28. Medieval England</t>
-  </si>
-  <si>
-    <t>29. Barbary Coast</t>
-  </si>
-  <si>
-    <t>30. Mesoamerica</t>
-  </si>
-  <si>
-    <t>31. Inuit Arctic</t>
-  </si>
-  <si>
-    <t>32. Imperial China</t>
-  </si>
-  <si>
-    <t>34. Historic Japan</t>
-  </si>
-  <si>
-    <t>38. Historic Korea</t>
-  </si>
-  <si>
-    <t>39. Piracy-era Caribbean</t>
-  </si>
-  <si>
-    <t>40. Revolution-era France</t>
-  </si>
-  <si>
-    <t>41. Punjab region</t>
-  </si>
-  <si>
-    <t>42. Steampunk England</t>
-  </si>
-  <si>
-    <t>43. Wild West</t>
-  </si>
-  <si>
-    <t>44. '50's New York</t>
-  </si>
-  <si>
-    <t>47. Modern USA</t>
-  </si>
-  <si>
-    <t>49. Post-Apocalyptic Miami</t>
-  </si>
-  <si>
-    <t>50. Post-Apocalyptic LA</t>
-  </si>
-  <si>
-    <t>45. '80s USA (time travel)</t>
   </si>
   <si>
     <t>C-</t>
@@ -1107,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD70"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1132,11 +988,10 @@
     <col min="27" max="27" width="9.28515625" style="7" customWidth="1"/>
     <col min="28" max="28" width="9.28515625" style="38" customWidth="1"/>
     <col min="29" max="29" width="9.28515625" style="20" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="7" customWidth="1"/>
-    <col min="31" max="16384" width="4.85546875" style="2"/>
+    <col min="30" max="16384" width="4.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" ht="50.25" customHeight="1">
+    <row r="1" spans="1:29" s="16" customFormat="1" ht="50.25" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>57</v>
       </c>
@@ -1224,11 +1079,8 @@
       <c r="AC1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:29" ht="12.75" customHeight="1">
       <c r="A2" s="32">
         <v>8</v>
       </c>
@@ -1334,11 +1186,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B2,sigs!$C:$C,Y2)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B2,sigs!$C:$C,AA2))/20</f>
         <v>5.35</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:29" ht="12.75" customHeight="1">
       <c r="A3" s="32">
         <v>15</v>
       </c>
@@ -1368,7 +1217,7 @@
         <v>10.696545454545454</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1444,11 +1293,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B3,sigs!$C:$C,Y3)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B3,sigs!$C:$C,AA3))/20</f>
         <v>5.9</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:29" ht="12.75" customHeight="1">
       <c r="A4" s="32">
         <v>36</v>
       </c>
@@ -1478,7 +1324,7 @@
         <v>10.199418181818181</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1554,11 +1400,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B4,sigs!$C:$C,Y4)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B4,sigs!$C:$C,AA4))/20</f>
         <v>9.35</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:29" ht="12.75" customHeight="1">
       <c r="A5" s="32">
         <v>25</v>
       </c>
@@ -1588,7 +1431,7 @@
         <v>10.179345454545455</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1664,11 +1507,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B5,sigs!$C:$C,Y5)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B5,sigs!$C:$C,AA5))/20</f>
         <v>7.85</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:29" ht="12.75" customHeight="1">
       <c r="A6" s="32">
         <v>3</v>
       </c>
@@ -1698,7 +1538,7 @@
         <v>10.1464</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1774,11 +1614,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B6,sigs!$C:$C,Y6)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B6,sigs!$C:$C,AA6))/20</f>
         <v>6.85</v>
       </c>
-      <c r="AD6" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:29" ht="12.75" customHeight="1">
       <c r="A7" s="32">
         <v>14</v>
       </c>
@@ -1884,11 +1721,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B7,sigs!$C:$C,Y7)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B7,sigs!$C:$C,AA7))/20</f>
         <v>7.55</v>
       </c>
-      <c r="AD7" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:29" ht="12.75" customHeight="1">
       <c r="A8" s="32">
         <v>42</v>
       </c>
@@ -1994,11 +1828,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B8,sigs!$C:$C,Y8)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B8,sigs!$C:$C,AA8))/20</f>
         <v>5.2</v>
       </c>
-      <c r="AD8" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:29" ht="12.75" customHeight="1">
       <c r="A9" s="32">
         <v>26</v>
       </c>
@@ -2028,7 +1859,7 @@
         <v>7.7214545454545451</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2104,11 +1935,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B9,sigs!$C:$C,Y9)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B9,sigs!$C:$C,AA9))/20</f>
         <v>7.75</v>
       </c>
-      <c r="AD9" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:29" ht="12.75" customHeight="1">
       <c r="A10" s="32">
         <v>21</v>
       </c>
@@ -2214,11 +2042,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B10,sigs!$C:$C,Y10)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B10,sigs!$C:$C,AA10))/20</f>
         <v>6.1</v>
       </c>
-      <c r="AD10" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:29" ht="12.75" customHeight="1">
       <c r="A11" s="32">
         <v>23</v>
       </c>
@@ -2324,11 +2149,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B11,sigs!$C:$C,Y11)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B11,sigs!$C:$C,AA11))/20</f>
         <v>5.15</v>
       </c>
-      <c r="AD11" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:29" ht="12.75" customHeight="1">
       <c r="A12" s="32">
         <v>9</v>
       </c>
@@ -2434,11 +2256,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B12,sigs!$C:$C,Y12)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B12,sigs!$C:$C,AA12))/20</f>
         <v>5.15</v>
       </c>
-      <c r="AD12" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:29" ht="12.75" customHeight="1">
       <c r="A13" s="32">
         <v>37</v>
       </c>
@@ -2544,11 +2363,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B13,sigs!$C:$C,Y13)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B13,sigs!$C:$C,AA13))/20</f>
         <v>6.95</v>
       </c>
-      <c r="AD13" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:29" ht="12.75" customHeight="1">
       <c r="A14" s="32">
         <v>7</v>
       </c>
@@ -2654,11 +2470,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B14,sigs!$C:$C,Y14)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B14,sigs!$C:$C,AA14))/20</f>
         <v>5.35</v>
       </c>
-      <c r="AD14" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:29" ht="12.75" customHeight="1">
       <c r="A15" s="32">
         <v>5</v>
       </c>
@@ -2764,11 +2577,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B15,sigs!$C:$C,Y15)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B15,sigs!$C:$C,AA15))/20</f>
         <v>6.3</v>
       </c>
-      <c r="AD15" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:29" ht="12.75" customHeight="1">
       <c r="A16" s="32">
         <v>17</v>
       </c>
@@ -2874,11 +2684,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B16,sigs!$C:$C,Y16)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B16,sigs!$C:$C,AA16))/20</f>
         <v>6.25</v>
       </c>
-      <c r="AD16" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:29" ht="12.75" customHeight="1">
       <c r="A17" s="32">
         <v>43</v>
       </c>
@@ -2984,11 +2791,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B17,sigs!$C:$C,Y17)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B17,sigs!$C:$C,AA17))/20</f>
         <v>4.95</v>
       </c>
-      <c r="AD17" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:29" ht="12.75" customHeight="1">
       <c r="A18" s="32">
         <v>24</v>
       </c>
@@ -3094,11 +2898,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B18,sigs!$C:$C,Y18)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B18,sigs!$C:$C,AA18))/20</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AD18" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:29" ht="12.75" customHeight="1">
       <c r="A19" s="32">
         <v>46</v>
       </c>
@@ -3204,11 +3005,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B19,sigs!$C:$C,Y19)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B19,sigs!$C:$C,AA19))/20</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="AD19" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:29" ht="12.75" customHeight="1">
       <c r="A20" s="32">
         <v>11</v>
       </c>
@@ -3314,11 +3112,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B20,sigs!$C:$C,Y20)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B20,sigs!$C:$C,AA20))/20</f>
         <v>6</v>
       </c>
-      <c r="AD20" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:29" ht="12.75" customHeight="1">
       <c r="A21" s="32">
         <v>41</v>
       </c>
@@ -3348,7 +3143,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3424,11 +3219,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B21,sigs!$C:$C,Y21)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B21,sigs!$C:$C,AA21))/20</f>
         <v>8.9499999999999993</v>
       </c>
-      <c r="AD21" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:29" ht="12.75" customHeight="1">
       <c r="A22" s="32">
         <v>27</v>
       </c>
@@ -3458,7 +3250,7 @@
         <v>7.9318181818181817</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" ref="K22:W31" si="4">IF(COUNTIF($X22:$AA22,K$1)=0,"",K$1)</f>
@@ -3534,11 +3326,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B22,sigs!$C:$C,Y22)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B22,sigs!$C:$C,AA22))/20</f>
         <v>6.35</v>
       </c>
-      <c r="AD22" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:29" ht="12.75" customHeight="1">
       <c r="A23" s="32">
         <v>48</v>
       </c>
@@ -3568,7 +3357,7 @@
         <v>7.8409090909090908</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3644,11 +3433,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B23,sigs!$C:$C,Y23)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B23,sigs!$C:$C,AA23))/20</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="AD23" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:29" ht="12.75" customHeight="1">
       <c r="A24" s="32">
         <v>32</v>
       </c>
@@ -3678,7 +3464,7 @@
         <v>7.8100000000000005</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3754,11 +3540,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B24,sigs!$C:$C,Y24)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B24,sigs!$C:$C,AA24))/20</f>
         <v>8.4499999999999993</v>
       </c>
-      <c r="AD24" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:29" ht="12.75" customHeight="1">
       <c r="A25" s="32">
         <v>6</v>
       </c>
@@ -3864,11 +3647,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B25,sigs!$C:$C,Y25)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B25,sigs!$C:$C,AA25))/20</f>
         <v>3.45</v>
       </c>
-      <c r="AD25" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:29" ht="12.75" customHeight="1">
       <c r="A26" s="32">
         <v>29</v>
       </c>
@@ -3974,11 +3754,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B26,sigs!$C:$C,Y26)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B26,sigs!$C:$C,AA26))/20</f>
         <v>2.7</v>
       </c>
-      <c r="AD26" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:29" ht="12.75" customHeight="1">
       <c r="A27" s="32">
         <v>47</v>
       </c>
@@ -4084,11 +3861,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B27,sigs!$C:$C,Y27)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B27,sigs!$C:$C,AA27))/20</f>
         <v>6.7</v>
       </c>
-      <c r="AD27" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:29" ht="12.75" customHeight="1">
       <c r="A28" s="32">
         <v>35</v>
       </c>
@@ -4194,11 +3968,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B28,sigs!$C:$C,Y28)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B28,sigs!$C:$C,AA28))/20</f>
         <v>5.25</v>
       </c>
-      <c r="AD28" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:29" ht="12.75" customHeight="1">
       <c r="A29" s="32">
         <v>45</v>
       </c>
@@ -4304,11 +4075,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B29,sigs!$C:$C,Y29)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B29,sigs!$C:$C,AA29))/20</f>
         <v>5.85</v>
       </c>
-      <c r="AD29" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:29" ht="12.75" customHeight="1">
       <c r="A30" s="32">
         <v>19</v>
       </c>
@@ -4414,11 +4182,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B30,sigs!$C:$C,Y30)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B30,sigs!$C:$C,AA30))/20</f>
         <v>0.95</v>
       </c>
-      <c r="AD30" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:29" ht="12.75" customHeight="1">
       <c r="A31" s="32">
         <v>49</v>
       </c>
@@ -4448,7 +4213,7 @@
         <v>5.3019454545454536</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="4"/>
@@ -4524,11 +4289,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B31,sigs!$C:$C,Y31)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B31,sigs!$C:$C,AA31))/20</f>
         <v>2.85</v>
       </c>
-      <c r="AD31" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:29" ht="12.75" customHeight="1">
       <c r="A32" s="32">
         <v>33</v>
       </c>
@@ -4558,7 +4320,7 @@
         <v>5.1374363636363629</v>
       </c>
       <c r="J32" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" ref="K32:W41" si="5">IF(COUNTIF($X32:$AA32,K$1)=0,"",K$1)</f>
@@ -4634,11 +4396,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B32,sigs!$C:$C,Y32)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B32,sigs!$C:$C,AA32))/20</f>
         <v>4.05</v>
       </c>
-      <c r="AD32" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:29" ht="12.75" customHeight="1">
       <c r="A33" s="32">
         <v>16</v>
       </c>
@@ -4744,11 +4503,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B33,sigs!$C:$C,Y33)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B33,sigs!$C:$C,AA33))/20</f>
         <v>7.7</v>
       </c>
-      <c r="AD33" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:29" ht="12.75" customHeight="1">
       <c r="A34" s="32">
         <v>40</v>
       </c>
@@ -4847,18 +4603,15 @@
         <v>76</v>
       </c>
       <c r="AB34" s="38">
-        <f t="shared" ref="AB34:AB65" si="7">MAX(X34:AA34)/SUM(X34:AA34)</f>
+        <f t="shared" ref="AB34:AB51" si="7">MAX(X34:AA34)/SUM(X34:AA34)</f>
         <v>0.57621580600507327</v>
       </c>
       <c r="AC34" s="22">
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B34,sigs!$C:$C,Y34)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B34,sigs!$C:$C,AA34))/20</f>
         <v>7.5</v>
       </c>
-      <c r="AD34" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:29" ht="12.75" customHeight="1">
       <c r="A35" s="32">
         <v>39</v>
       </c>
@@ -4964,11 +4717,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B35,sigs!$C:$C,Y35)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B35,sigs!$C:$C,AA35))/20</f>
         <v>5.8</v>
       </c>
-      <c r="AD35" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:29" ht="12.75" customHeight="1">
       <c r="A36" s="32">
         <v>1</v>
       </c>
@@ -4998,7 +4748,7 @@
         <v>5.4748181818181827</v>
       </c>
       <c r="J36" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K36" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5074,11 +4824,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B36,sigs!$C:$C,Y36)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B36,sigs!$C:$C,AA36))/20</f>
         <v>2.7</v>
       </c>
-      <c r="AD36" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:29" ht="12.75" customHeight="1">
       <c r="A37" s="32">
         <v>4</v>
       </c>
@@ -5108,7 +4855,7 @@
         <v>5.2213818181818192</v>
       </c>
       <c r="J37" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5184,11 +4931,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B37,sigs!$C:$C,Y37)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B37,sigs!$C:$C,AA37))/20</f>
         <v>3.15</v>
       </c>
-      <c r="AD37" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:29" ht="12.75" customHeight="1">
       <c r="A38" s="32">
         <v>31</v>
       </c>
@@ -5294,11 +5038,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B38,sigs!$C:$C,Y38)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B38,sigs!$C:$C,AA38))/20</f>
         <v>3.5</v>
       </c>
-      <c r="AD38" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:29" ht="12.75" customHeight="1">
       <c r="A39" s="32">
         <v>34</v>
       </c>
@@ -5404,11 +5145,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B39,sigs!$C:$C,Y39)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B39,sigs!$C:$C,AA39))/20</f>
         <v>1.45</v>
       </c>
-      <c r="AD39" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:29" ht="12.75" customHeight="1">
       <c r="A40" s="32">
         <v>18</v>
       </c>
@@ -5438,7 +5176,7 @@
         <v>5.7835818181818173</v>
       </c>
       <c r="J40" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5514,11 +5252,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B40,sigs!$C:$C,Y40)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B40,sigs!$C:$C,AA40))/20</f>
         <v>6</v>
       </c>
-      <c r="AD40" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:29" ht="12.75" customHeight="1">
       <c r="A41" s="32">
         <v>22</v>
       </c>
@@ -5548,7 +5283,7 @@
         <v>5.77</v>
       </c>
       <c r="J41" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -5624,11 +5359,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B41,sigs!$C:$C,Y41)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B41,sigs!$C:$C,AA41))/20</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="AD41" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:29" ht="12.75" customHeight="1">
       <c r="A42" s="32">
         <v>38</v>
       </c>
@@ -5658,7 +5390,7 @@
         <v>5.0957090909090912</v>
       </c>
       <c r="J42" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K42" s="2" t="str">
         <f t="shared" ref="K42:W51" si="8">IF(COUNTIF($X42:$AA42,K$1)=0,"",K$1)</f>
@@ -5734,11 +5466,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B42,sigs!$C:$C,Y42)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B42,sigs!$C:$C,AA42))/20</f>
         <v>3.5</v>
       </c>
-      <c r="AD42" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:29" ht="12.75" customHeight="1">
       <c r="A43" s="32">
         <v>44</v>
       </c>
@@ -5844,11 +5573,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B43,sigs!$C:$C,Y43)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B43,sigs!$C:$C,AA43))/20</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="AD43" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:29" ht="12.75" customHeight="1">
       <c r="A44" s="32">
         <v>12</v>
       </c>
@@ -5954,11 +5680,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B44,sigs!$C:$C,Y44)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B44,sigs!$C:$C,AA44))/20</f>
         <v>3.95</v>
       </c>
-      <c r="AD44" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:29" ht="12.75" customHeight="1">
       <c r="A45" s="32">
         <v>20</v>
       </c>
@@ -6064,11 +5787,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B45,sigs!$C:$C,Y45)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B45,sigs!$C:$C,AA45))/20</f>
         <v>1.45</v>
       </c>
-      <c r="AD45" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:29" ht="12.75" customHeight="1">
       <c r="A46" s="32">
         <v>28</v>
       </c>
@@ -6174,11 +5894,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B46,sigs!$C:$C,Y46)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B46,sigs!$C:$C,AA46))/20</f>
         <v>2.5499999999999998</v>
       </c>
-      <c r="AD46" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:29" ht="12.75" customHeight="1">
       <c r="A47" s="32">
         <v>50</v>
       </c>
@@ -6284,11 +6001,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B47,sigs!$C:$C,Y47)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B47,sigs!$C:$C,AA47))/20</f>
         <v>1.95</v>
       </c>
-      <c r="AD47" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:29" ht="12.75" customHeight="1">
       <c r="A48" s="32">
         <v>30</v>
       </c>
@@ -6318,7 +6032,7 @@
         <v>5.6452181818181817</v>
       </c>
       <c r="J48" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K48" s="2" t="str">
         <f t="shared" si="8"/>
@@ -6394,11 +6108,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B48,sigs!$C:$C,Y48)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B48,sigs!$C:$C,AA48))/20</f>
         <v>5.4</v>
       </c>
-      <c r="AD48" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:29" ht="12.75" customHeight="1">
       <c r="A49" s="32">
         <v>13</v>
       </c>
@@ -6504,11 +6215,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B49,sigs!$C:$C,Y49)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B49,sigs!$C:$C,AA49))/20</f>
         <v>4.5</v>
       </c>
-      <c r="AD49" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:29" ht="12.75" customHeight="1">
       <c r="A50" s="32">
         <v>2</v>
       </c>
@@ -6614,11 +6322,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B50,sigs!$C:$C,Y50)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B50,sigs!$C:$C,AA50))/20</f>
         <v>2.25</v>
       </c>
-      <c r="AD50" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:29" ht="12.75" customHeight="1">
       <c r="A51" s="32">
         <v>10</v>
       </c>
@@ -6724,11 +6429,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B51,sigs!$C:$C,Y51)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B51,sigs!$C:$C,AA51))/20</f>
         <v>1.85</v>
       </c>
-      <c r="AD51" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:29" ht="12.75" customHeight="1">
       <c r="A54" s="32">
         <v>0</v>
       </c>
@@ -6834,11 +6536,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B54,sigs!$C:$C,Y54)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B54,sigs!$C:$C,AA54))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD54" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:29" ht="12.75" customHeight="1">
       <c r="A55" s="32">
         <v>0</v>
       </c>
@@ -6868,7 +6567,7 @@
         <v>7.9450000000000003</v>
       </c>
       <c r="J55" s="45" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="K55" s="2" t="str">
         <f t="shared" si="10"/>
@@ -6944,11 +6643,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B55,sigs!$C:$C,Y55)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B55,sigs!$C:$C,AA55))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD55" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:29" ht="12.75" customHeight="1">
       <c r="A56" s="32">
         <v>0</v>
       </c>
@@ -7054,11 +6750,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B56,sigs!$C:$C,Y56)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B56,sigs!$C:$C,AA56))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD56" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:29" ht="12.75" customHeight="1">
       <c r="A57" s="32">
         <v>0</v>
       </c>
@@ -7164,11 +6857,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B57,sigs!$C:$C,Y57)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B57,sigs!$C:$C,AA57))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD57" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:29" ht="12.75" customHeight="1">
       <c r="A58" s="32">
         <v>0</v>
       </c>
@@ -7274,11 +6964,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B58,sigs!$C:$C,Y58)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B58,sigs!$C:$C,AA58))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD58" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:29" ht="12.75" customHeight="1">
       <c r="A59" s="32">
         <v>0</v>
       </c>
@@ -7384,11 +7071,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B59,sigs!$C:$C,Y59)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B59,sigs!$C:$C,AA59))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD59" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:29" ht="12.75" customHeight="1">
       <c r="A60" s="32">
         <v>0</v>
       </c>
@@ -7494,11 +7178,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B60,sigs!$C:$C,Y60)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B60,sigs!$C:$C,AA60))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD60" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:29" ht="12.75" customHeight="1">
       <c r="A61" s="32">
         <v>0</v>
       </c>
@@ -7528,7 +7209,7 @@
         <v>5.8750000000000009</v>
       </c>
       <c r="J61" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K61" s="2" t="str">
         <f t="shared" si="10"/>
@@ -7604,11 +7285,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B61,sigs!$C:$C,Y61)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B61,sigs!$C:$C,AA61))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD61" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:29" ht="12.75" customHeight="1">
       <c r="A62" s="32">
         <v>0</v>
       </c>
@@ -7638,7 +7316,7 @@
         <v>5.7550000000000008</v>
       </c>
       <c r="J62" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K62" s="2" t="str">
         <f t="shared" si="10"/>
@@ -7714,11 +7392,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B62,sigs!$C:$C,Y62)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B62,sigs!$C:$C,AA62))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD62" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:29" ht="12.75" customHeight="1">
       <c r="A63" s="32">
         <v>0</v>
       </c>
@@ -7748,7 +7423,7 @@
         <v>5.7550000000000008</v>
       </c>
       <c r="J63" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K63" s="2" t="str">
         <f t="shared" si="10"/>
@@ -7824,11 +7499,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B63,sigs!$C:$C,Y63)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B63,sigs!$C:$C,AA63))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD63" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:29" ht="12.75" customHeight="1">
       <c r="A64" s="32">
         <v>0</v>
       </c>
@@ -7858,7 +7530,7 @@
         <v>5.5750000000000002</v>
       </c>
       <c r="J64" s="40" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="K64" s="2" t="str">
         <f t="shared" ref="K64:W70" si="13">IF(COUNTIF($X64:$AA64,K$1)=0,"",K$1)</f>
@@ -7934,11 +7606,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B64,sigs!$C:$C,Y64)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B64,sigs!$C:$C,AA64))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD64" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:29" ht="12.75" customHeight="1">
       <c r="A65" s="32">
         <v>0</v>
       </c>
@@ -8044,11 +7713,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B65,sigs!$C:$C,Y65)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B65,sigs!$C:$C,AA65))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD65" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:29" ht="12.75" customHeight="1">
       <c r="A66" s="32">
         <v>0</v>
       </c>
@@ -8154,11 +7820,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B66,sigs!$C:$C,Y66)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B66,sigs!$C:$C,AA66))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD66" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:29" ht="12.75" customHeight="1">
       <c r="A67" s="32">
         <v>0</v>
       </c>
@@ -8264,11 +7927,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B67,sigs!$C:$C,Y67)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B67,sigs!$C:$C,AA67))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD67" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:29" ht="12.75" customHeight="1">
       <c r="A68" s="32">
         <v>0</v>
       </c>
@@ -8374,11 +8034,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B68,sigs!$C:$C,Y68)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B68,sigs!$C:$C,AA68))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD68" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:29" ht="12.75" customHeight="1">
       <c r="A69" s="32">
         <v>0</v>
       </c>
@@ -8484,11 +8141,8 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B69,sigs!$C:$C,Y69)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B69,sigs!$C:$C,AA69))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD69" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="12.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:29" ht="12.75" customHeight="1">
       <c r="A70" s="32">
         <v>0</v>
       </c>
@@ -8518,7 +8172,7 @@
         <v>4.5250000000000004</v>
       </c>
       <c r="J70" s="41" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="K70" s="2" t="str">
         <f t="shared" si="13"/>
@@ -8594,12 +8248,9 @@
         <f>(SUMIFS(sigs!$B:$B,sigs!$A:$A,$B70,sigs!$C:$C,Y70)+SUMIFS(sigs!$B:$B,sigs!$A:$A,$B70,sigs!$C:$C,AA70))/20</f>
         <v>5.05</v>
       </c>
-      <c r="AD70" s="7" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD51">
+  <autoFilter ref="A1:AC51">
     <filterColumn colId="3"/>
     <filterColumn colId="10"/>
     <filterColumn colId="12"/>
@@ -8961,7 +8612,7 @@
         <v>64</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F1" s="10">
         <v>20</v>
